--- a/道具.xlsx
+++ b/道具.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>道具名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,42 @@
   </si>
   <si>
     <t>b哥用来看直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1；2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇儿出轨证据，用于交给张辉；用于假扮女主播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b哥的衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装维修电视的工作人员进入老余的房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辉的礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自张辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来卖钱还债</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,13 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F7" totalsRowShown="0">
-  <autoFilter ref="A2:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F9" totalsRowShown="0">
+  <autoFilter ref="A2:F9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="序号" dataDxfId="1"/>
     <tableColumn id="2" name="道具名称"/>
@@ -484,7 +523,7 @@
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -497,14 +536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -539,11 +578,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,8 +665,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
